--- a/data/业务流程/3山东离职人员导入模板.xlsx
+++ b/data/业务流程/3山东离职人员导入模板.xlsx
@@ -120,7 +120,7 @@
     <t>身份证</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>43122519890310283X</t>
   </si>
   <si>
     <t>00008644000000002020012064</t>
@@ -730,10 +730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -832,6 +832,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -840,67 +922,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,55 +961,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,25 +1034,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,102 +1190,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1172,49 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,6 +1327,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1341,17 +1371,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,48 +1415,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1429,10 +1429,10 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,133 +1441,133 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2111,7 +2111,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2326,7 +2326,7 @@
       <c r="D7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="38" t="s">

--- a/data/业务流程/3山东离职人员导入模板.xlsx
+++ b/data/业务流程/3山东离职人员导入模板.xlsx
@@ -120,10 +120,10 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>43122519890310283X</t>
-  </si>
-  <si>
-    <t>00008644000000002020012064</t>
+    <t>431225198903109919</t>
+  </si>
+  <si>
+    <t>00008644000000002020012065</t>
   </si>
   <si>
     <t>个险营销</t>
@@ -730,12 +730,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -828,6 +828,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -839,6 +846,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -854,22 +908,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,24 +946,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,6 +961,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -922,55 +976,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,6 +1041,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1046,7 +1173,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,163 +1221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,31 +1333,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1374,41 +1366,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1423,16 +1382,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,19 +1448,19 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1462,116 +1469,116 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1683,8 +1690,11 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1707,7 +1717,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1715,6 +1725,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2111,7 +2127,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2245,14 +2261,14 @@
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="46"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" s="28" customFormat="1" ht="62.1" customHeight="1" spans="1:19">
       <c r="A6" s="35" t="s">
@@ -2282,7 +2298,7 @@
       <c r="I6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="45" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="34" t="s">
@@ -2291,16 +2307,16 @@
       <c r="L6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="45" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="34" t="s">
@@ -2309,7 +2325,7 @@
       <c r="R6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="S6" s="48" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2323,16 +2339,16 @@
       <c r="C7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="52" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="41" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="36">
@@ -2365,57 +2381,57 @@
       <c r="Q7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="48"/>
+      <c r="R7" s="49"/>
       <c r="S7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="49"/>
+      <c r="T7" s="50"/>
     </row>
     <row r="8" s="29" customFormat="1" ht="18" customHeight="1" spans="1:19">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
     </row>
     <row r="9" s="30" customFormat="1" ht="115" customHeight="1" spans="1:19">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
     </row>
     <row r="10" s="30" customFormat="1"/>
     <row r="15" spans="13:13">
@@ -2437,11 +2453,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"身份证,其他"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
+      <formula1>"首次导入,修改覆盖,更新信息"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
       <formula1>"个险营销,银保,团险,电销,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
-      <formula1>"首次导入,修改覆盖,更新信息"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/data/业务流程/3山东离职人员导入模板.xlsx
+++ b/data/业务流程/3山东离职人员导入模板.xlsx
@@ -120,7 +120,7 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>431225198903109919</t>
+    <t>431225198903107614</t>
   </si>
   <si>
     <t>00008644000000002020012065</t>
@@ -730,9 +730,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
@@ -839,20 +839,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -870,7 +856,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,6 +906,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -892,6 +952,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,83 +968,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,187 +1041,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,19 +1366,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,7 +1391,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,25 +1430,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1448,16 +1448,16 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,115 +1466,115 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2127,7 +2127,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2450,14 +2450,14 @@
     <mergeCell ref="A4:G5"/>
   </mergeCells>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
+      <formula1>"个险营销,银保,团险,电销,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"身份证,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
       <formula1>"首次导入,修改覆盖,更新信息"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"个险营销,银保,团险,电销,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
